--- a/data/costos_y_madera_nodos.xlsx
+++ b/data/costos_y_madera_nodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/mswahl_uc_cl/Documents/Documentos/Universidad/2025/2025-1/Capston/capstone_industrial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470B11F3-9E00-49EA-BE16-6C3CC8B634CD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E64D9F56-F1A9-408E-9B06-B954AEFAE582}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -519,363 +519,366 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>357.59999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>416.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>624.9</v>
+        <v>348.72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>591.70000000000005</v>
+        <v>374.34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>580.1</v>
+        <v>366.84</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>359.64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>572.5</v>
+        <v>335.52000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>592</v>
+        <v>252.64000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>663.7</v>
+        <v>192.9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>546.20000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>471.94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>614</v>
+        <v>624.9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>591.70000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>617.4</v>
+        <v>620.79999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>449.32999999999993</v>
+        <v>654.9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -884,84 +887,90 @@
         <v>15</v>
       </c>
       <c r="G20">
-        <v>638.6</v>
+        <v>644.20000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>696.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>705.1</v>
+        <v>639.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>499.37999999999994</v>
+        <v>589.4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -970,365 +979,377 @@
         <v>15</v>
       </c>
       <c r="G24">
-        <v>692.8</v>
+        <v>564.1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>623.29999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>383.45999999999992</v>
+        <v>621.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>700.9</v>
+        <v>505.92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>580.1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>466.54999999999995</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>590.9</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>441.90999999999997</v>
+        <v>602.29999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>672.8</v>
+        <v>637.6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>659.3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>424.12999999999994</v>
+        <v>569.1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36">
-        <v>612.9</v>
+        <v>557.79999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>45</v>
+        <v>639.1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>426.15999999999997</v>
+        <v>548.29999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
       <c r="F39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>623.1</v>
+        <v>525.29999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>55</v>
+        <v>592.70000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1337,685 +1358,721 @@
         <v>5</v>
       </c>
       <c r="G41">
-        <v>382.34000000000003</v>
+        <v>294.75</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G42">
-        <v>665.7</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>4</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>546.20000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>598.6</v>
+        <v>672.7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>617.20000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>357.59999999999997</v>
+        <v>675.8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>416.7</v>
+        <v>643.6</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>620.79999999999995</v>
+        <v>539.5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>654.9</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>602.29999999999995</v>
+        <v>658.3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G52">
-        <v>637.6</v>
+        <v>562.79999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>672.7</v>
+        <v>597.29999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>617.20000000000005</v>
+        <v>286.14999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>675.8</v>
+        <v>553.20000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>587.70000000000005</v>
+        <v>471.94</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G57">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G58">
-        <v>574.70000000000005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>6</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>581.1</v>
+        <v>617.4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>9</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>641.1</v>
+        <v>587.70000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <v>9</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>617.9</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>9</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>515.5</v>
+        <v>574.70000000000005</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>7</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F63">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>692.3</v>
+        <v>534.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G64">
-        <v>643.79999999999995</v>
+        <v>656.2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G65">
-        <v>587</v>
+        <v>533.6</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>520.29999999999995</v>
+        <v>576.79999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G67">
-        <v>603.79999999999995</v>
+        <v>543.20000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>619.79999999999995</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G69">
-        <v>641.79999999999995</v>
+        <v>647.20000000000005</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>589.1</v>
+        <v>554.20000000000005</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>637.6</v>
+        <v>449.32999999999993</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G72">
-        <v>584.79999999999995</v>
+        <v>638.6</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>541.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -2027,15 +2084,15 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>485.1</v>
+        <v>705.1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -2043,19 +2100,22 @@
       <c r="D75">
         <v>10</v>
       </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
       <c r="F75">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G75">
-        <v>554.4</v>
+        <v>581.1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -2067,15 +2127,15 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>585.79999999999995</v>
+        <v>641.1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -2087,230 +2147,248 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>648.1</v>
+        <v>617.9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D78">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>652.29999999999995</v>
+        <v>653.79999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G79">
-        <v>632.5</v>
+        <v>670.4</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G80">
-        <v>562.4</v>
+        <v>535.4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G81">
-        <v>510.4</v>
+        <v>673.8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>637.20000000000005</v>
+        <v>604.70000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>649.5</v>
+        <v>657.4</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <v>644.6</v>
+        <v>601.20000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G85">
-        <v>660.4</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>570.79999999999995</v>
+        <v>499.37999999999994</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G87">
-        <v>574.4</v>
+        <v>692.8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2321,263 +2399,260 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>655.1</v>
+        <v>515.5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>692.3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G91">
-        <v>502.57500000000005</v>
+        <v>643.79999999999995</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>13</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>638.6</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>13</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>553.70000000000005</v>
+        <v>670.1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G94">
-        <v>614</v>
+        <v>495.7</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95">
-        <v>560.70000000000005</v>
+        <v>557.6</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>536.29999999999995</v>
+        <v>569.4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G97">
-        <v>509.54999999999995</v>
+        <v>544.70000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>509.54999999999995</v>
+        <v>574.4</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>437.92499999999995</v>
+        <v>519.1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2586,21 +2661,21 @@
         <v>5</v>
       </c>
       <c r="G100">
-        <v>348.72</v>
+        <v>295.60000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2609,179 +2684,170 @@
         <v>5</v>
       </c>
       <c r="G101">
-        <v>374.34</v>
+        <v>383.45999999999992</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
         <v>8</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>366.84</v>
+        <v>700.9</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B103">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G103">
-        <v>359.64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G104">
-        <v>644.20000000000005</v>
+        <v>520.29999999999995</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G105">
-        <v>696.7</v>
+        <v>603.79999999999995</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
         <v>8</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>639.20000000000005</v>
+        <v>619.79999999999995</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s">
         <v>8</v>
       </c>
       <c r="F107">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>589.4</v>
+        <v>641.79999999999995</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>8</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>659.3</v>
+        <v>603.70000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>9</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -2790,21 +2856,21 @@
         <v>10</v>
       </c>
       <c r="G109">
-        <v>569.1</v>
+        <v>618.29999999999995</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110">
         <v>10</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -2813,21 +2879,21 @@
         <v>10</v>
       </c>
       <c r="G110">
-        <v>557.79999999999995</v>
+        <v>575.70000000000005</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="B111">
+        <v>18</v>
+      </c>
+      <c r="C111">
         <v>11</v>
       </c>
-      <c r="C111">
-        <v>10</v>
-      </c>
       <c r="D111">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -2836,41 +2902,44 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <v>643.6</v>
+        <v>639.5</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="B112">
+        <v>18</v>
+      </c>
+      <c r="C112">
         <v>12</v>
       </c>
-      <c r="C112">
-        <v>8</v>
-      </c>
       <c r="D112">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>539.5</v>
+        <v>565.29999999999995</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="B113">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -2879,150 +2948,147 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <v>693</v>
+        <v>673.2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="B114">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G114">
-        <v>534.5</v>
+        <v>551.29999999999995</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G115">
-        <v>656.2</v>
+        <v>307.75</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="B116">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G116">
-        <v>533.6</v>
+        <v>466.54999999999995</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B117">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>653.79999999999995</v>
+        <v>590.9</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>6</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>670.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D119">
-        <v>6</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>535.4</v>
+        <v>589.1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>7</v>
@@ -3031,87 +3097,81 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>670.1</v>
+        <v>637.6</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B121">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>7</v>
       </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
       <c r="F121">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>495.7</v>
+        <v>584.79999999999995</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B122">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D122">
         <v>7</v>
       </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
       <c r="F122">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>557.6</v>
+        <v>541.6</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C123">
         <v>8</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>603.70000000000005</v>
+        <v>612.20000000000005</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C124">
         <v>9</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -3120,21 +3180,21 @@
         <v>10</v>
       </c>
       <c r="G124">
-        <v>618.29999999999995</v>
+        <v>566.4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C125">
         <v>10</v>
       </c>
       <c r="D125">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -3143,41 +3203,44 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <v>575.70000000000005</v>
+        <v>574</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
       <c r="C126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G126">
-        <v>612.20000000000005</v>
+        <v>593.70000000000005</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3186,21 +3249,21 @@
         <v>10</v>
       </c>
       <c r="G127">
-        <v>566.4</v>
+        <v>766.4</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -3209,21 +3272,21 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <v>574</v>
+        <v>606.6</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="B129">
+        <v>17</v>
+      </c>
+      <c r="C129">
         <v>14</v>
       </c>
-      <c r="C129">
-        <v>11</v>
-      </c>
       <c r="D129">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -3232,205 +3295,187 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <v>593.70000000000005</v>
+        <v>625.9</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
       </c>
       <c r="F130">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <v>636.29999999999995</v>
+        <v>333.25</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="B131">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G131">
-        <v>466.3</v>
+        <v>441.90999999999997</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B132">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>10</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>638.1</v>
+        <v>672.8</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>10</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>582.70000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B134">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>11</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F134">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>615.79999999999995</v>
+        <v>485.1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B135">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>11</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>552.4</v>
+        <v>554.4</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B136">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>11</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>622.6</v>
+        <v>585.79999999999995</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B137">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D137">
-        <v>11</v>
-      </c>
-      <c r="E137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>588.29999999999995</v>
+        <v>648.1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B138">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138">
         <v>8</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -3439,21 +3484,21 @@
         <v>15</v>
       </c>
       <c r="G138">
-        <v>609.29999999999995</v>
+        <v>636.29999999999995</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C139">
         <v>9</v>
       </c>
       <c r="D139">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -3462,21 +3507,21 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <v>642.4</v>
+        <v>466.3</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B140">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140">
         <v>10</v>
       </c>
       <c r="D140">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3485,44 +3530,44 @@
         <v>10</v>
       </c>
       <c r="G140">
-        <v>660.6</v>
+        <v>638.1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B141">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
       <c r="F141">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G141">
-        <v>593.20000000000005</v>
+        <v>582.70000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B142">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C142">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -3531,21 +3576,21 @@
         <v>10</v>
       </c>
       <c r="G142">
-        <v>569.29999999999995</v>
+        <v>628.4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B143">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D143">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -3554,340 +3599,334 @@
         <v>10</v>
       </c>
       <c r="G143">
-        <v>590.20000000000005</v>
+        <v>597.1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B144">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D144">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
       </c>
       <c r="F144">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G144">
-        <v>645.79999999999995</v>
+        <v>531.20000000000005</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D145">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
       </c>
       <c r="F145">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G145">
-        <v>595.20000000000005</v>
+        <v>321.45</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G146">
-        <v>629.29999999999995</v>
+        <v>424.12999999999994</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>15</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>486.75</v>
+        <v>612.9</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="B148">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G148">
-        <v>461.09999999999997</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F149">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G149">
-        <v>473.25</v>
+        <v>652.29999999999995</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="B150">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G150">
-        <v>362.46</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F151">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>335.52000000000004</v>
+        <v>562.4</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="B152">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C152">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>252.64000000000001</v>
+        <v>510.4</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
       </c>
       <c r="F153">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G153">
-        <v>192.9</v>
+        <v>615.79999999999995</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B154">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>552.4</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C155">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
       </c>
       <c r="F155">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G155">
-        <v>564.1</v>
+        <v>622.6</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C156">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
       </c>
       <c r="F156">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G156">
-        <v>623.29999999999995</v>
+        <v>588.29999999999995</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
       </c>
       <c r="F157">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G157">
-        <v>621.5</v>
+        <v>559.9</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C158">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -3896,21 +3935,21 @@
         <v>10</v>
       </c>
       <c r="G158">
-        <v>505.92</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B159">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -3919,179 +3958,167 @@
         <v>10</v>
       </c>
       <c r="G159">
-        <v>639.1</v>
+        <v>661.5</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B160">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C160">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G160">
-        <v>548.29999999999995</v>
+        <v>179.54999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B161">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G161">
-        <v>525.29999999999995</v>
+        <v>426.15999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="B162">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>3</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>592.70000000000005</v>
+        <v>623.1</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B163">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C163">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F163">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G163">
-        <v>294.75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="B164">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C164">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D164">
         <v>4</v>
       </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
       <c r="F164">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>658.3</v>
+        <v>637.20000000000005</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="B165">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D165">
         <v>4</v>
       </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
       <c r="F165">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>562.79999999999995</v>
+        <v>649.5</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B166">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C166">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D166">
         <v>4</v>
       </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
       <c r="F166">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>597.29999999999995</v>
+        <v>644.6</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="B167">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -4100,47 +4127,47 @@
         <v>8</v>
       </c>
       <c r="F167">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G167">
-        <v>286.14999999999998</v>
+        <v>660.4</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B168">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G168">
-        <v>576.79999999999995</v>
+        <v>609.29999999999995</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B169">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -4149,38 +4176,38 @@
         <v>10</v>
       </c>
       <c r="G169">
-        <v>543.20000000000005</v>
+        <v>642.4</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B170">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G170">
-        <v>301.5</v>
+        <v>660.6</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B171">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C171">
         <v>11</v>
@@ -4195,21 +4222,21 @@
         <v>10</v>
       </c>
       <c r="G171">
-        <v>553.20000000000005</v>
+        <v>607.1</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B172">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -4218,21 +4245,21 @@
         <v>10</v>
       </c>
       <c r="G172">
-        <v>647.20000000000005</v>
+        <v>664.4</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B173">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C173">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -4241,21 +4268,21 @@
         <v>10</v>
       </c>
       <c r="G173">
-        <v>554.20000000000005</v>
+        <v>571.4</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B174">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -4264,228 +4291,219 @@
         <v>10</v>
       </c>
       <c r="G174">
-        <v>673.8</v>
+        <v>672.2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="B175">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C175">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G175">
-        <v>604.70000000000005</v>
+        <v>382.34000000000003</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="B176">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C176">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>6</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>657.4</v>
+        <v>665.7</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="B177">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C177">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G177">
-        <v>601.20000000000005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="B178">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C178">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D178">
-        <v>6</v>
-      </c>
-      <c r="E178" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>265</v>
+        <v>570.79999999999995</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B179">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>7</v>
-      </c>
-      <c r="E179" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>569.4</v>
+        <v>574.4</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="B180">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
       </c>
       <c r="F180">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G180">
-        <v>544.70000000000005</v>
+        <v>638.6</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="B181">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C181">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G181">
-        <v>574.4</v>
+        <v>553.70000000000005</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B182">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C182">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E182" t="s">
         <v>8</v>
       </c>
       <c r="F182">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G182">
-        <v>519.1</v>
+        <v>593.20000000000005</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B183">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C183">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
       </c>
       <c r="F183">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G183">
-        <v>295.60000000000002</v>
+        <v>569.29999999999995</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B184">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D184">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -4494,21 +4512,21 @@
         <v>10</v>
       </c>
       <c r="G184">
-        <v>639.5</v>
+        <v>590.20000000000005</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B185">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C185">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
@@ -4517,21 +4535,21 @@
         <v>10</v>
       </c>
       <c r="G185">
-        <v>565.29999999999995</v>
+        <v>530.29999999999995</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B186">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C186">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -4540,21 +4558,21 @@
         <v>10</v>
       </c>
       <c r="G186">
-        <v>673.2</v>
+        <v>592.29999999999995</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B187">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -4563,563 +4581,548 @@
         <v>10</v>
       </c>
       <c r="G187">
-        <v>551.29999999999995</v>
+        <v>581.6</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B188">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C188">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
       </c>
       <c r="F188">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G188">
-        <v>307.75</v>
+        <v>431.9</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="B189">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>9</v>
-      </c>
-      <c r="E189" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F189">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>766.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="B190">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>9</v>
-      </c>
-      <c r="E190" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F190">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>606.6</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="B191">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C191">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>9</v>
-      </c>
-      <c r="E191" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>625.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="B192">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C192">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D192">
-        <v>9</v>
-      </c>
-      <c r="E192" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>333.25</v>
+        <v>655.1</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="B193">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D193">
-        <v>10</v>
-      </c>
-      <c r="E193" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F193">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>628.4</v>
+        <v>614</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="B194">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D194">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G194">
-        <v>597.1</v>
+        <v>560.70000000000005</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="B195">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
       </c>
       <c r="F195">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G195">
-        <v>531.20000000000005</v>
+        <v>536.29999999999995</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C196">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
       </c>
       <c r="F196">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G196">
-        <v>321.45</v>
+        <v>645.79999999999995</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="B197">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C197">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
       </c>
       <c r="F197">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G197">
-        <v>559.9</v>
+        <v>595.20000000000005</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="B198">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C198">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D198">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G198">
-        <v>640.5</v>
+        <v>629.29999999999995</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B199">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C199">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E199" t="s">
         <v>8</v>
       </c>
       <c r="F199">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G199">
-        <v>661.5</v>
+        <v>589.4</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B200">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D200">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
       </c>
       <c r="F200">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G200">
-        <v>179.54999999999998</v>
+        <v>631.1</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B201">
         <v>16</v>
       </c>
       <c r="C201">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
       </c>
       <c r="F201">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G201">
-        <v>607.1</v>
+        <v>605.5</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="B202">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C202">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>12</v>
-      </c>
-      <c r="E202" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>664.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="B203">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C203">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
       </c>
       <c r="F203">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G203">
-        <v>571.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="B204">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C204">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D204">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
       </c>
       <c r="F204">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G204">
-        <v>672.2</v>
+        <v>502.57500000000005</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="B205">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D205">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E205" t="s">
         <v>8</v>
       </c>
       <c r="F205">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G205">
-        <v>530.29999999999995</v>
+        <v>509.54999999999995</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="B206">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C206">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D206">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G206">
-        <v>592.29999999999995</v>
+        <v>509.54999999999995</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B207">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
       </c>
       <c r="F207">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G207">
-        <v>581.6</v>
+        <v>437.92499999999995</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="B208">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C208">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G208">
-        <v>431.9</v>
+        <v>486.75</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="B209">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C209">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E209" t="s">
         <v>8</v>
       </c>
       <c r="F209">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G209">
-        <v>589.4</v>
+        <v>461.09999999999997</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="B210">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C210">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D210">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
         <v>8</v>
       </c>
       <c r="F210">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G210">
-        <v>631.1</v>
+        <v>473.25</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="B211">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C211">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>
       </c>
       <c r="F211">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G211">
-        <v>605.5</v>
+        <v>362.46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:G226" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D211">
+    <sortCondition descending="1" ref="D2:D211"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/costos_y_madera_nodos.xlsx
+++ b/data/costos_y_madera_nodos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/mswahl_uc_cl/Documents/Documentos/Universidad/2025/2025-1/Capston/capstone_industrial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E64D9F56-F1A9-408E-9B06-B954AEFAE582}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8351B3-73D8-4102-99A5-4AA7D921BDCE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$B$1:$G$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$G$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}">
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,366 +519,363 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>357.59999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>416.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>348.72</v>
+        <v>624.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>374.34</v>
+        <v>591.70000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>366.84</v>
+        <v>580.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>359.64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>335.52000000000004</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>252.64000000000001</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>192.9</v>
+        <v>663.7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>546.20000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
       <c r="D15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>471.94</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>624.9</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>591.70000000000005</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>620.79999999999995</v>
+        <v>617.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>654.9</v>
+        <v>449.32999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -887,90 +884,84 @@
         <v>15</v>
       </c>
       <c r="G20">
-        <v>644.20000000000005</v>
+        <v>638.6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>696.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>639.20000000000005</v>
+        <v>705.1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>589.4</v>
+        <v>499.37999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -979,377 +970,365 @@
         <v>15</v>
       </c>
       <c r="G24">
-        <v>564.1</v>
+        <v>692.8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>623.29999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>621.5</v>
+        <v>383.45999999999992</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>505.92</v>
+        <v>700.9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G28">
-        <v>580.1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
       <c r="D29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>466.54999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>572.5</v>
+        <v>590.9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>602.29999999999995</v>
+        <v>441.90999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>637.6</v>
+        <v>672.8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>659.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>569.1</v>
+        <v>424.12999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>557.79999999999995</v>
+        <v>612.9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G37">
-        <v>639.1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>548.29999999999995</v>
+        <v>426.15999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>525.29999999999995</v>
+        <v>623.1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G40">
-        <v>592.70000000000005</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1358,1037 +1337,980 @@
         <v>5</v>
       </c>
       <c r="G41">
-        <v>294.75</v>
+        <v>382.34000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>663.7</v>
+        <v>665.7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
       <c r="D44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>546.20000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>672.7</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>617.20000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>675.8</v>
+        <v>357.59999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>643.6</v>
+        <v>416.7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>12</v>
-      </c>
-      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>539.5</v>
+        <v>620.79999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>693</v>
+        <v>654.9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G51">
-        <v>658.3</v>
+        <v>602.29999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="D52">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
       <c r="F52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>562.79999999999995</v>
+        <v>637.6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G53">
-        <v>597.29999999999995</v>
+        <v>672.7</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>286.14999999999998</v>
+        <v>617.20000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>553.20000000000005</v>
+        <v>675.8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>11</v>
       </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
       <c r="F56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>471.94</v>
+        <v>587.70000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>11</v>
       </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
       <c r="F57">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>11</v>
       </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
       <c r="F58">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>15</v>
+        <v>574.70000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G59">
-        <v>617.4</v>
+        <v>581.1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>587.70000000000005</v>
+        <v>641.1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>604</v>
+        <v>617.9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>574.70000000000005</v>
+        <v>515.5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G63">
-        <v>534.5</v>
+        <v>692.3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G64">
-        <v>656.2</v>
+        <v>643.79999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>533.6</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C66">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G66">
-        <v>576.79999999999995</v>
+        <v>520.29999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G67">
-        <v>543.20000000000005</v>
+        <v>603.79999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>301.5</v>
+        <v>619.79999999999995</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>647.20000000000005</v>
+        <v>641.79999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>554.20000000000005</v>
+        <v>589.1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>449.32999999999993</v>
+        <v>637.6</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>638.6</v>
+        <v>584.79999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>541.6</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>705.1</v>
+        <v>485.1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>581.1</v>
+        <v>554.4</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>6</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>641.1</v>
+        <v>585.79999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>7</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>617.9</v>
+        <v>648.1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G78">
-        <v>653.79999999999995</v>
+        <v>652.29999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G79">
-        <v>670.4</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>535.4</v>
+        <v>562.4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>673.8</v>
+        <v>510.4</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>604.70000000000005</v>
+        <v>637.20000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>657.4</v>
+        <v>649.5</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>601.20000000000005</v>
+        <v>644.6</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D85">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G85">
-        <v>265</v>
+        <v>660.4</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>9</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>499.37999999999994</v>
+        <v>570.79999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>9</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>692.8</v>
+        <v>574.4</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2399,260 +2321,263 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>515.5</v>
+        <v>655.1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>692.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G91">
-        <v>643.79999999999995</v>
+        <v>502.57500000000005</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G92">
-        <v>587</v>
+        <v>638.6</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G93">
-        <v>670.1</v>
+        <v>553.70000000000005</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>9</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>495.7</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95">
-        <v>557.6</v>
+        <v>560.70000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G96">
-        <v>569.4</v>
+        <v>536.29999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G97">
-        <v>544.70000000000005</v>
+        <v>509.54999999999995</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>574.4</v>
+        <v>509.54999999999995</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G99">
-        <v>519.1</v>
+        <v>437.92499999999995</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2661,21 +2586,21 @@
         <v>5</v>
       </c>
       <c r="G100">
-        <v>295.60000000000002</v>
+        <v>348.72</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2684,171 +2609,180 @@
         <v>5</v>
       </c>
       <c r="G101">
-        <v>383.45999999999992</v>
+        <v>374.34</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D102">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
         <v>8</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G102">
-        <v>700.9</v>
+        <v>366.84</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>45</v>
+        <v>359.64</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G104">
-        <v>520.29999999999995</v>
+        <v>644.20000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G105">
-        <v>603.79999999999995</v>
+        <v>696.7</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D106">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
         <v>8</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G106">
-        <v>619.79999999999995</v>
+        <v>639.20000000000005</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
         <v>8</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G107">
-        <v>641.79999999999995</v>
+        <v>589.4</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
         <v>13</v>
       </c>
-      <c r="C108">
-        <v>8</v>
-      </c>
-      <c r="D108">
-        <v>8</v>
-      </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>603.70000000000005</v>
+        <v>659.3</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109">
         <v>13</v>
       </c>
-      <c r="C109">
-        <v>9</v>
-      </c>
-      <c r="D109">
-        <v>8</v>
-      </c>
       <c r="E109" t="s">
         <v>8</v>
       </c>
@@ -2856,22 +2790,22 @@
         <v>10</v>
       </c>
       <c r="G109">
-        <v>618.29999999999995</v>
+        <v>569.1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
         <v>13</v>
       </c>
-      <c r="C110">
-        <v>10</v>
-      </c>
-      <c r="D110">
-        <v>8</v>
-      </c>
       <c r="E110" t="s">
         <v>8</v>
       </c>
@@ -2879,21 +2813,21 @@
         <v>10</v>
       </c>
       <c r="G110">
-        <v>575.70000000000005</v>
+        <v>557.79999999999995</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -2902,44 +2836,41 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <v>639.5</v>
+        <v>643.6</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112">
         <v>12</v>
       </c>
-      <c r="D112">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
       <c r="F112">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>565.29999999999995</v>
+        <v>539.5</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -2948,230 +2879,239 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <v>673.2</v>
+        <v>693</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C114">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D114">
-        <v>7</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>551.29999999999995</v>
+        <v>534.5</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C115">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G115">
-        <v>307.75</v>
+        <v>656.2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
       </c>
       <c r="F116">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G116">
-        <v>466.54999999999995</v>
+        <v>533.6</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>590.9</v>
+        <v>653.79999999999995</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>670.4</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>589.1</v>
+        <v>535.4</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>637.6</v>
+        <v>670.1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G121">
-        <v>584.79999999999995</v>
+        <v>495.7</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D122">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>541.6</v>
+        <v>557.6</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123">
         <v>8</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>612.20000000000005</v>
+        <v>603.70000000000005</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124">
         <v>9</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -3180,21 +3120,21 @@
         <v>10</v>
       </c>
       <c r="G124">
-        <v>566.4</v>
+        <v>618.29999999999995</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125">
         <v>10</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -3203,41 +3143,38 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <v>574</v>
+        <v>575.70000000000005</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D126">
         <v>7</v>
       </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
       <c r="F126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>593.70000000000005</v>
+        <v>612.20000000000005</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127">
         <v>7</v>
@@ -3249,21 +3186,21 @@
         <v>10</v>
       </c>
       <c r="G127">
-        <v>766.4</v>
+        <v>566.4</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C128">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -3272,21 +3209,21 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <v>606.6</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -3295,18 +3232,18 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <v>625.9</v>
+        <v>593.70000000000005</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D130">
         <v>6</v>
@@ -3315,21 +3252,21 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G130">
-        <v>333.25</v>
+        <v>636.29999999999995</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -3338,144 +3275,162 @@
         <v>8</v>
       </c>
       <c r="F131">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G131">
-        <v>441.90999999999997</v>
+        <v>466.3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D132">
         <v>6</v>
       </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
       <c r="F132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G132">
-        <v>672.8</v>
+        <v>638.1</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D133">
         <v>6</v>
       </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
       <c r="F133">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>582.70000000000005</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G134">
-        <v>485.1</v>
+        <v>615.79999999999995</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G135">
-        <v>554.4</v>
+        <v>552.4</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C136">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G136">
-        <v>585.79999999999995</v>
+        <v>622.6</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G137">
-        <v>648.1</v>
+        <v>588.29999999999995</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C138">
         <v>8</v>
       </c>
       <c r="D138">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -3484,21 +3439,21 @@
         <v>15</v>
       </c>
       <c r="G138">
-        <v>636.29999999999995</v>
+        <v>609.29999999999995</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C139">
         <v>9</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -3507,21 +3462,21 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <v>466.3</v>
+        <v>642.4</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C140">
         <v>10</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3530,44 +3485,44 @@
         <v>10</v>
       </c>
       <c r="G140">
-        <v>638.1</v>
+        <v>660.6</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G141">
-        <v>582.70000000000005</v>
+        <v>593.20000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C142">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -3576,21 +3531,21 @@
         <v>10</v>
       </c>
       <c r="G142">
-        <v>628.4</v>
+        <v>569.29999999999995</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -3599,335 +3554,341 @@
         <v>10</v>
       </c>
       <c r="G143">
-        <v>597.1</v>
+        <v>590.20000000000005</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C144">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G144">
-        <v>531.20000000000005</v>
+        <v>645.79999999999995</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C145">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
       </c>
       <c r="F145">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G145">
-        <v>321.45</v>
+        <v>595.20000000000005</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
       </c>
       <c r="F146">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G146">
-        <v>424.12999999999994</v>
+        <v>629.29999999999995</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G147">
-        <v>612.9</v>
+        <v>486.75</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G148">
-        <v>45</v>
+        <v>461.09999999999997</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G149">
-        <v>652.29999999999995</v>
+        <v>473.25</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G150">
-        <v>632.5</v>
+        <v>362.46</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G151">
-        <v>562.4</v>
+        <v>335.52000000000004</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G152">
-        <v>510.4</v>
+        <v>252.64000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B153">
+        <v>16</v>
+      </c>
+      <c r="C153">
         <v>14</v>
       </c>
-      <c r="C153">
-        <v>8</v>
-      </c>
       <c r="D153">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
       </c>
       <c r="F153">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G153">
-        <v>615.79999999999995</v>
+        <v>192.9</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B154">
+        <v>16</v>
+      </c>
+      <c r="C154">
+        <v>15</v>
+      </c>
+      <c r="D154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>9</v>
-      </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
       <c r="F154">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>552.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B155">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>12</v>
+      </c>
+      <c r="D155">
         <v>14</v>
       </c>
-      <c r="C155">
-        <v>10</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
       <c r="E155" t="s">
         <v>8</v>
       </c>
       <c r="F155">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G155">
-        <v>622.6</v>
+        <v>564.1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
       </c>
       <c r="F156">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G156">
-        <v>588.29999999999995</v>
+        <v>623.29999999999995</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
       </c>
       <c r="F157">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G157">
-        <v>559.9</v>
+        <v>621.5</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158">
+        <v>15</v>
+      </c>
+      <c r="D158">
         <v>13</v>
       </c>
-      <c r="D158">
-        <v>4</v>
-      </c>
       <c r="E158" t="s">
         <v>8</v>
       </c>
@@ -3935,21 +3896,21 @@
         <v>10</v>
       </c>
       <c r="G158">
-        <v>640.5</v>
+        <v>505.92</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -3958,216 +3919,228 @@
         <v>10</v>
       </c>
       <c r="G159">
-        <v>661.5</v>
+        <v>639.1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
       </c>
       <c r="F160">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G160">
-        <v>179.54999999999998</v>
+        <v>548.29999999999995</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
       </c>
       <c r="F161">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G161">
-        <v>426.15999999999997</v>
+        <v>525.29999999999995</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G162">
-        <v>623.1</v>
+        <v>592.70000000000005</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G163">
-        <v>55</v>
+        <v>294.75</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G164">
-        <v>637.20000000000005</v>
+        <v>658.3</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G165">
-        <v>649.5</v>
+        <v>562.79999999999995</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C166">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G166">
-        <v>644.6</v>
+        <v>597.29999999999995</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C167">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
         <v>8</v>
       </c>
       <c r="F167">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G167">
-        <v>660.4</v>
+        <v>286.14999999999998</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
       </c>
       <c r="F168">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G168">
-        <v>609.29999999999995</v>
+        <v>576.79999999999995</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C169">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -4176,44 +4149,44 @@
         <v>10</v>
       </c>
       <c r="G169">
-        <v>642.4</v>
+        <v>543.20000000000005</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
       </c>
       <c r="F170">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G170">
-        <v>660.6</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C171">
         <v>11</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -4222,21 +4195,21 @@
         <v>10</v>
       </c>
       <c r="G171">
-        <v>607.1</v>
+        <v>553.20000000000005</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C172">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -4245,21 +4218,21 @@
         <v>10</v>
       </c>
       <c r="G172">
-        <v>664.4</v>
+        <v>647.20000000000005</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C173">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -4268,21 +4241,21 @@
         <v>10</v>
       </c>
       <c r="G173">
-        <v>571.4</v>
+        <v>554.20000000000005</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C174">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -4291,219 +4264,228 @@
         <v>10</v>
       </c>
       <c r="G174">
-        <v>672.2</v>
+        <v>673.8</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
       </c>
       <c r="F175">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G175">
-        <v>382.34000000000003</v>
+        <v>604.70000000000005</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G176">
-        <v>665.7</v>
+        <v>657.4</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F177">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G177">
-        <v>40</v>
+        <v>601.20000000000005</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G178">
-        <v>570.79999999999995</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G179">
-        <v>574.4</v>
+        <v>569.4</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
       </c>
       <c r="F180">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G180">
-        <v>638.6</v>
+        <v>544.70000000000005</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C181">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
       </c>
       <c r="F181">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G181">
-        <v>553.70000000000005</v>
+        <v>574.4</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C182">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E182" t="s">
         <v>8</v>
       </c>
       <c r="F182">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G182">
-        <v>593.20000000000005</v>
+        <v>519.1</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
       </c>
       <c r="F183">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G183">
-        <v>569.29999999999995</v>
+        <v>295.60000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -4512,21 +4494,21 @@
         <v>10</v>
       </c>
       <c r="G184">
-        <v>590.20000000000005</v>
+        <v>639.5</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
@@ -4535,21 +4517,21 @@
         <v>10</v>
       </c>
       <c r="G185">
-        <v>530.29999999999995</v>
+        <v>565.29999999999995</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C186">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -4558,21 +4540,21 @@
         <v>10</v>
       </c>
       <c r="G186">
-        <v>592.29999999999995</v>
+        <v>673.2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C187">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -4581,506 +4563,524 @@
         <v>10</v>
       </c>
       <c r="G187">
-        <v>581.6</v>
+        <v>551.29999999999995</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C188">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
       </c>
       <c r="F188">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G188">
-        <v>431.9</v>
+        <v>307.75</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>766.4</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G190">
-        <v>598.6</v>
+        <v>606.6</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>625.9</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G192">
-        <v>655.1</v>
+        <v>333.25</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="B193">
+        <v>18</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193">
         <v>6</v>
       </c>
-      <c r="C193">
-        <v>5</v>
-      </c>
-      <c r="D193">
-        <v>2</v>
+      <c r="E193" t="s">
+        <v>8</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G193">
-        <v>614</v>
+        <v>628.4</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
       </c>
       <c r="F194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G194">
-        <v>560.70000000000005</v>
+        <v>597.1</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C195">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
       </c>
       <c r="F195">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G195">
-        <v>536.29999999999995</v>
+        <v>531.20000000000005</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
       </c>
       <c r="F196">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G196">
-        <v>645.79999999999995</v>
+        <v>321.45</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C197">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
       </c>
       <c r="F197">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G197">
-        <v>595.20000000000005</v>
+        <v>559.9</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
       </c>
       <c r="F198">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G198">
-        <v>629.29999999999995</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C199">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199" t="s">
         <v>8</v>
       </c>
       <c r="F199">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G199">
-        <v>589.4</v>
+        <v>661.5</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C200">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
       </c>
       <c r="F200">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G200">
-        <v>631.1</v>
+        <v>179.54999999999998</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C201">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
       </c>
       <c r="F201">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G201">
-        <v>605.5</v>
+        <v>607.1</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>664.4</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C203">
+        <v>13</v>
+      </c>
+      <c r="D203">
         <v>3</v>
       </c>
-      <c r="D203">
-        <v>1</v>
-      </c>
       <c r="E203" t="s">
         <v>8</v>
       </c>
       <c r="F203">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G203">
-        <v>5</v>
+        <v>571.4</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
       </c>
       <c r="F204">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G204">
-        <v>502.57500000000005</v>
+        <v>672.2</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E205" t="s">
         <v>8</v>
       </c>
       <c r="F205">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G205">
-        <v>509.54999999999995</v>
+        <v>530.29999999999995</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C206">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
       </c>
       <c r="F206">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G206">
-        <v>509.54999999999995</v>
+        <v>592.29999999999995</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C207">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
       </c>
       <c r="F207">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G207">
-        <v>437.92499999999995</v>
+        <v>581.6</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B208">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C208">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
       </c>
       <c r="F208">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G208">
-        <v>486.75</v>
+        <v>431.9</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C209">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E209" t="s">
         <v>8</v>
       </c>
       <c r="F209">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G209">
-        <v>461.09999999999997</v>
+        <v>589.4</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C210">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -5089,21 +5089,21 @@
         <v>8</v>
       </c>
       <c r="F210">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G210">
-        <v>473.25</v>
+        <v>631.1</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C211">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5112,16 +5112,17 @@
         <v>8</v>
       </c>
       <c r="F211">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G211">
-        <v>362.46</v>
+        <v>605.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G226" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D211">
-    <sortCondition descending="1" ref="D2:D211"/>
+  <autoFilter ref="A1:G211" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G211">
+    <sortCondition ref="A2:A211"/>
+    <sortCondition ref="B2:B211"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/costos_y_madera_nodos.xlsx
+++ b/data/costos_y_madera_nodos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/mswahl_uc_cl/Documents/Documentos/Universidad/2025/2025-1/Capston/capstone_industrial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8351B3-73D8-4102-99A5-4AA7D921BDCE}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{812FF7BD-EB6A-4A6D-B765-D628E50C81D2}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
@@ -442,8 +442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}">
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3775,7 +3776,7 @@
         <v>14</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -3798,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="D154">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3841,7 +3842,7 @@
         <v>13</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -3864,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="D157">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -3887,7 +3888,7 @@
         <v>15</v>
       </c>
       <c r="D158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -3956,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -3979,7 +3980,7 @@
         <v>14</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E162" t="s">
         <v>8</v>
@@ -4002,7 +4003,7 @@
         <v>15</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -4071,7 +4072,7 @@
         <v>14</v>
       </c>
       <c r="D166">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -4094,7 +4095,7 @@
         <v>15</v>
       </c>
       <c r="D167">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E167" t="s">
         <v>8</v>
@@ -4163,7 +4164,7 @@
         <v>15</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -4186,7 +4187,7 @@
         <v>11</v>
       </c>
       <c r="D171">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -4209,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -4232,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -4301,7 +4302,7 @@
         <v>13</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -4324,7 +4325,7 @@
         <v>14</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
         <v>8</v>
@@ -4347,7 +4348,7 @@
         <v>15</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
         <v>8</v>
@@ -4416,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="D181">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -4439,7 +4440,7 @@
         <v>14</v>
       </c>
       <c r="D182">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E182" t="s">
         <v>8</v>
@@ -4462,7 +4463,7 @@
         <v>15</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -4531,7 +4532,7 @@
         <v>13</v>
       </c>
       <c r="D186">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -4554,7 +4555,7 @@
         <v>14</v>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -4577,7 +4578,7 @@
         <v>15</v>
       </c>
       <c r="D188">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
@@ -4623,7 +4624,7 @@
         <v>13</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -4646,7 +4647,7 @@
         <v>14</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E191" t="s">
         <v>8</v>
@@ -4669,7 +4670,7 @@
         <v>15</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -4715,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -4738,7 +4739,7 @@
         <v>14</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
@@ -4761,7 +4762,7 @@
         <v>15</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -4807,7 +4808,7 @@
         <v>13</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -4830,7 +4831,7 @@
         <v>14</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E199" t="s">
         <v>8</v>
@@ -4853,7 +4854,7 @@
         <v>15</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
@@ -4899,7 +4900,7 @@
         <v>12</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E202" t="s">
         <v>8</v>
@@ -4922,7 +4923,7 @@
         <v>13</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
@@ -4945,7 +4946,7 @@
         <v>14</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
@@ -4991,7 +4992,7 @@
         <v>12</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
@@ -5014,7 +5015,7 @@
         <v>13</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
@@ -5037,7 +5038,7 @@
         <v>14</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
@@ -5083,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210" t="s">
         <v>8</v>
@@ -5106,7 +5107,7 @@
         <v>13</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>

--- a/data/costos_y_madera_nodos.xlsx
+++ b/data/costos_y_madera_nodos.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/mswahl_uc_cl/Documents/Documentos/Universidad/2025/2025-1/Capston/capstone_industrial/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/tgoas_uc_cl/Documents/Documentos/PUC/9no sem/Capstone/capstone_industrial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{812FF7BD-EB6A-4A6D-B765-D628E50C81D2}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CD8F4A8-E91C-43C0-9BA3-960D69DDFE5C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
@@ -23,26 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="10">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="9">
   <si>
     <t>eje vertical</t>
   </si>
@@ -59,9 +45,6 @@
     <t>idrodal</t>
   </si>
   <si>
-    <t>costo inst</t>
-  </si>
-  <si>
     <t>tipo de feane</t>
   </si>
   <si>
@@ -70,13 +53,24 @@
   <si>
     <t>torre</t>
   </si>
+  <si>
+    <t>costo inst</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -104,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,39 +435,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,16 +481,16 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G2">
         <v>124.94000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,16 +504,16 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G3">
         <v>378.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -538,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -552,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -581,7 +576,7 @@
         <v>624.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -601,7 +596,7 @@
         <v>591.70000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -615,16 +610,16 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G8">
         <v>580.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -638,16 +633,17 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -667,7 +663,7 @@
         <v>572.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -687,7 +683,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -701,16 +697,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G12">
         <v>663.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -724,16 +720,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -753,7 +749,7 @@
         <v>546.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -767,16 +763,16 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G15">
         <v>471.94</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -790,16 +786,16 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G16">
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -813,16 +809,16 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -841,8 +837,9 @@
       <c r="G18">
         <v>617.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -856,16 +853,16 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G19">
         <v>449.32999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -879,16 +876,16 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G20">
         <v>638.6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -908,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -928,7 +925,7 @@
         <v>705.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -942,16 +939,16 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G23">
         <v>499.37999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -965,16 +962,16 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G24">
         <v>692.8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1008,16 +1005,16 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G26">
         <v>383.45999999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>700.9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1051,16 +1048,16 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="G28">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1074,16 +1071,16 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G29">
         <v>466.54999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>590.9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1123,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1137,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G32">
         <v>441.90999999999997</v>
@@ -1200,10 +1197,10 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G35">
         <v>424.12999999999994</v>
@@ -1243,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="G37">
         <v>45</v>
@@ -1266,10 +1263,10 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G38">
         <v>426.15999999999997</v>
@@ -1309,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>55</v>
+        <v>55000</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -1332,10 +1329,10 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G41">
         <v>382.34000000000003</v>
@@ -1375,10 +1372,10 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="G43">
         <v>40</v>
@@ -1458,10 +1455,10 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G47">
         <v>357.59999999999997</v>
@@ -1481,16 +1478,16 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G48">
         <v>416.7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1503,14 +1500,15 @@
       <c r="D49">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
         <v>620.79999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>654.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1544,16 +1542,16 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="G51">
         <v>602.29999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>637.6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1587,16 +1585,16 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="G53">
         <v>672.7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>617.20000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1636,7 +1634,7 @@
         <v>675.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1656,7 +1654,7 @@
         <v>587.70000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1676,7 +1674,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>574.70000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1710,16 +1708,16 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F59">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="G59">
         <v>581.1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>641.1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>617.9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1779,7 +1777,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1793,16 +1791,16 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F63">
-        <v>55</v>
+        <v>55000</v>
       </c>
       <c r="G63">
         <v>692.3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1816,10 +1814,10 @@
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F64">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="G64">
         <v>643.79999999999995</v>
@@ -1859,10 +1857,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F66">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="G66">
         <v>520.29999999999995</v>
@@ -1882,10 +1880,10 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F67">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="G67">
         <v>603.79999999999995</v>
@@ -2105,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="G78">
         <v>652.29999999999995</v>
@@ -2128,10 +2126,10 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="G79">
         <v>632.5</v>
@@ -2251,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G85">
         <v>660.4</v>
@@ -2354,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -2377,10 +2375,10 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G91">
         <v>502.57500000000005</v>
@@ -2400,10 +2398,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G92">
         <v>638.6</v>
@@ -2423,10 +2421,10 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G93">
         <v>553.70000000000005</v>
@@ -2466,10 +2464,10 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G95">
         <v>560.70000000000005</v>
@@ -2489,10 +2487,10 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G96">
         <v>536.29999999999995</v>
@@ -2512,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G97">
         <v>509.54999999999995</v>
@@ -2535,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G98">
         <v>509.54999999999995</v>
@@ -2558,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G99">
         <v>437.92499999999995</v>
@@ -2581,10 +2579,10 @@
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G100">
         <v>348.72</v>
@@ -2604,10 +2602,10 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G101">
         <v>374.34</v>
@@ -2627,10 +2625,10 @@
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G102">
         <v>366.84</v>
@@ -2650,10 +2648,10 @@
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G103">
         <v>359.64</v>
@@ -2673,10 +2671,10 @@
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F104">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G104">
         <v>644.20000000000005</v>
@@ -2696,10 +2694,10 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F105">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G105">
         <v>696.7</v>
@@ -2719,10 +2717,10 @@
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G106">
         <v>639.20000000000005</v>
@@ -2742,10 +2740,10 @@
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F107">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G107">
         <v>589.4</v>
@@ -2785,10 +2783,10 @@
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G109">
         <v>569.1</v>
@@ -2808,10 +2806,10 @@
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G110">
         <v>557.79999999999995</v>
@@ -2831,10 +2829,10 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G111">
         <v>643.6</v>
@@ -2874,10 +2872,10 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G113">
         <v>693</v>
@@ -2917,10 +2915,10 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G115">
         <v>656.2</v>
@@ -2940,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G116">
         <v>533.6</v>
@@ -2983,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G118">
         <v>670.4</v>
@@ -3006,10 +3004,10 @@
         <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G119">
         <v>535.4</v>
@@ -3049,10 +3047,10 @@
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G121">
         <v>495.7</v>
@@ -3072,10 +3070,10 @@
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G122">
         <v>557.6</v>
@@ -3115,10 +3113,10 @@
         <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G124">
         <v>618.29999999999995</v>
@@ -3138,10 +3136,10 @@
         <v>8</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G125">
         <v>575.70000000000005</v>
@@ -3181,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G127">
         <v>566.4</v>
@@ -3204,10 +3202,10 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G128">
         <v>574</v>
@@ -3227,10 +3225,10 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G129">
         <v>593.70000000000005</v>
@@ -3250,10 +3248,10 @@
         <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F130">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G130">
         <v>636.29999999999995</v>
@@ -3273,10 +3271,10 @@
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G131">
         <v>466.3</v>
@@ -3296,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G132">
         <v>638.1</v>
@@ -3319,10 +3317,10 @@
         <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G133">
         <v>582.70000000000005</v>
@@ -3342,10 +3340,10 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F134">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G134">
         <v>615.79999999999995</v>
@@ -3365,10 +3363,10 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G135">
         <v>552.4</v>
@@ -3388,10 +3386,10 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G136">
         <v>622.6</v>
@@ -3411,10 +3409,10 @@
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G137">
         <v>588.29999999999995</v>
@@ -3434,10 +3432,10 @@
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F138">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G138">
         <v>609.29999999999995</v>
@@ -3457,10 +3455,10 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G139">
         <v>642.4</v>
@@ -3480,10 +3478,10 @@
         <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G140">
         <v>660.6</v>
@@ -3503,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F141">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G141">
         <v>593.20000000000005</v>
@@ -3526,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G142">
         <v>569.29999999999995</v>
@@ -3549,10 +3547,10 @@
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G143">
         <v>590.20000000000005</v>
@@ -3572,10 +3570,10 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F144">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G144">
         <v>645.79999999999995</v>
@@ -3595,10 +3593,10 @@
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F145">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G145">
         <v>595.20000000000005</v>
@@ -3618,10 +3616,10 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G146">
         <v>629.29999999999995</v>
@@ -3641,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F147">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G147">
         <v>486.75</v>
@@ -3664,10 +3662,10 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F148">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G148">
         <v>461.09999999999997</v>
@@ -3687,10 +3685,10 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F149">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G149">
         <v>473.25</v>
@@ -3710,10 +3708,10 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F150">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G150">
         <v>362.46</v>
@@ -3733,10 +3731,10 @@
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F151">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G151">
         <v>335.52000000000004</v>
@@ -3756,10 +3754,10 @@
         <v>15</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F152">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G152">
         <v>252.64000000000001</v>
@@ -3779,10 +3777,10 @@
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F153">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G153">
         <v>192.9</v>
@@ -3822,10 +3820,10 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F155">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G155">
         <v>564.1</v>
@@ -3845,10 +3843,10 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F156">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G156">
         <v>623.29999999999995</v>
@@ -3868,10 +3866,10 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F157">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G157">
         <v>621.5</v>
@@ -3891,10 +3889,10 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F158">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G158">
         <v>505.92</v>
@@ -3914,10 +3912,10 @@
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F159">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G159">
         <v>639.1</v>
@@ -3937,10 +3935,10 @@
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G160">
         <v>548.29999999999995</v>
@@ -3960,10 +3958,10 @@
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G161">
         <v>525.29999999999995</v>
@@ -3983,10 +3981,10 @@
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G162">
         <v>592.70000000000005</v>
@@ -4006,10 +4004,10 @@
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F163">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G163">
         <v>294.75</v>
@@ -4029,10 +4027,10 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F164">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G164">
         <v>658.3</v>
@@ -4052,10 +4050,10 @@
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F165">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G165">
         <v>562.79999999999995</v>
@@ -4075,10 +4073,10 @@
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F166">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G166">
         <v>597.29999999999995</v>
@@ -4098,10 +4096,10 @@
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F167">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G167">
         <v>286.14999999999998</v>
@@ -4121,10 +4119,10 @@
         <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G168">
         <v>576.79999999999995</v>
@@ -4144,10 +4142,10 @@
         <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G169">
         <v>543.20000000000005</v>
@@ -4167,10 +4165,10 @@
         <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G170">
         <v>301.5</v>
@@ -4190,10 +4188,10 @@
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G171">
         <v>553.20000000000005</v>
@@ -4213,10 +4211,10 @@
         <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G172">
         <v>647.20000000000005</v>
@@ -4236,10 +4234,10 @@
         <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F173">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G173">
         <v>554.20000000000005</v>
@@ -4259,10 +4257,10 @@
         <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F174">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G174">
         <v>673.8</v>
@@ -4282,10 +4280,10 @@
         <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G175">
         <v>604.70000000000005</v>
@@ -4305,10 +4303,10 @@
         <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G176">
         <v>657.4</v>
@@ -4328,10 +4326,10 @@
         <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G177">
         <v>601.20000000000005</v>
@@ -4351,10 +4349,10 @@
         <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F178">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G178">
         <v>265</v>
@@ -4374,10 +4372,10 @@
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F179">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G179">
         <v>569.4</v>
@@ -4397,10 +4395,10 @@
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F180">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G180">
         <v>544.70000000000005</v>
@@ -4420,10 +4418,10 @@
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G181">
         <v>574.4</v>
@@ -4443,10 +4441,10 @@
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F182">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G182">
         <v>519.1</v>
@@ -4466,10 +4464,10 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F183">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G183">
         <v>295.60000000000002</v>
@@ -4489,10 +4487,10 @@
         <v>8</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F184">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G184">
         <v>639.5</v>
@@ -4512,10 +4510,10 @@
         <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F185">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G185">
         <v>565.29999999999995</v>
@@ -4535,10 +4533,10 @@
         <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F186">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G186">
         <v>673.2</v>
@@ -4558,10 +4556,10 @@
         <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G187">
         <v>551.29999999999995</v>
@@ -4581,10 +4579,10 @@
         <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F188">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G188">
         <v>307.75</v>
@@ -4604,10 +4602,10 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F189">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G189">
         <v>766.4</v>
@@ -4627,10 +4625,10 @@
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F190">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G190">
         <v>606.6</v>
@@ -4650,10 +4648,10 @@
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G191">
         <v>625.9</v>
@@ -4673,10 +4671,10 @@
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F192">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G192">
         <v>333.25</v>
@@ -4696,10 +4694,10 @@
         <v>6</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F193">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G193">
         <v>628.4</v>
@@ -4719,10 +4717,10 @@
         <v>6</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G194">
         <v>597.1</v>
@@ -4742,10 +4740,10 @@
         <v>6</v>
       </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F195">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G195">
         <v>531.20000000000005</v>
@@ -4765,10 +4763,10 @@
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F196">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G196">
         <v>321.45</v>
@@ -4788,10 +4786,10 @@
         <v>5</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F197">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G197">
         <v>559.9</v>
@@ -4811,10 +4809,10 @@
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G198">
         <v>640.5</v>
@@ -4834,10 +4832,10 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F199">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G199">
         <v>661.5</v>
@@ -4857,10 +4855,10 @@
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F200">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="G200">
         <v>179.54999999999998</v>
@@ -4880,10 +4878,10 @@
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F201">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G201">
         <v>607.1</v>
@@ -4903,10 +4901,10 @@
         <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F202">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G202">
         <v>664.4</v>
@@ -4926,10 +4924,10 @@
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F203">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G203">
         <v>571.4</v>
@@ -4949,10 +4947,10 @@
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F204">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G204">
         <v>672.2</v>
@@ -4972,10 +4970,10 @@
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F205">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G205">
         <v>530.29999999999995</v>
@@ -4995,10 +4993,10 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G206">
         <v>592.29999999999995</v>
@@ -5018,10 +5016,10 @@
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F207">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G207">
         <v>581.6</v>
@@ -5041,10 +5039,10 @@
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G208">
         <v>431.9</v>
@@ -5064,10 +5062,10 @@
         <v>2</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F209">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G209">
         <v>589.4</v>
@@ -5087,10 +5085,10 @@
         <v>2</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F210">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G210">
         <v>631.1</v>
@@ -5110,10 +5108,10 @@
         <v>2</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F211">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="G211">
         <v>605.5</v>
@@ -5126,6 +5124,7 @@
     <sortCondition ref="B2:B211"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/costos_y_madera_nodos.xlsx
+++ b/data/costos_y_madera_nodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/tgoas_uc_cl/Documents/Documentos/PUC/9no sem/Capstone/capstone_industrial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CD8F4A8-E91C-43C0-9BA3-960D69DDFE5C}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C957D3C8-60A5-4C70-81DA-78B61417F173}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
   </bookViews>
@@ -438,8 +438,8 @@
   <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>550.29499999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -553,7 +553,7 @@
         <v>15000</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>606.70000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>15000</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>583.5</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -726,7 +726,7 @@
         <v>15000</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>602.4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -815,7 +815,7 @@
         <v>15000</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>552.6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>509.8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>663.3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1054,7 +1054,7 @@
         <v>45000</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>586.9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>699.8</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>514.9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1246,7 +1246,7 @@
         <v>45000</v>
       </c>
       <c r="G37">
-        <v>45</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1312,7 +1312,7 @@
         <v>55000</v>
       </c>
       <c r="G40">
-        <v>55</v>
+        <v>670.6</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1378,7 +1378,7 @@
         <v>40000</v>
       </c>
       <c r="G43">
-        <v>40</v>
+        <v>609.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>550.29499999999996</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>550.29499999999996</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>532.79999999999995</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -2358,7 +2358,7 @@
         <v>5000</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>473.625</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>550.29499999999996</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">

--- a/data/costos_y_madera_nodos.xlsx
+++ b/data/costos_y_madera_nodos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/tgoas_uc_cl/Documents/Documentos/PUC/9no sem/Capstone/capstone_industrial/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/mswahl_uc_cl/Documents/Documentos/Universidad/2025/2025-1/Capston/capstone_industrial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C957D3C8-60A5-4C70-81DA-78B61417F173}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF49DFC-2672-4E1A-B63B-80C7234E5AD9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
@@ -438,13 +438,13 @@
   <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J142" sqref="J142"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>124.94000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -513,7 +513,7 @@
         <v>378.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -527,13 +527,13 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
         <v>550.29499999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
         <v>606.70000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -570,13 +570,13 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G6">
         <v>624.9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,13 +590,14 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
         <v>591.70000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -619,7 +620,7 @@
         <v>580.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -643,7 +644,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -657,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G10">
         <v>572.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -677,13 +678,13 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G11">
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -706,7 +707,7 @@
         <v>663.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -729,7 +730,7 @@
         <v>602.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -743,13 +744,13 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G14">
         <v>546.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -772,7 +773,7 @@
         <v>471.94</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -832,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G18">
         <v>617.4</v>
@@ -899,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G21">
         <v>509.8</v>
@@ -919,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G22">
         <v>705.1</v>
@@ -985,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G25">
         <v>663.3</v>
@@ -1028,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G27">
         <v>700.9</v>
@@ -1094,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G30">
         <v>590.9</v>
@@ -1114,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G31">
         <v>699.8</v>
@@ -1157,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G33">
         <v>672.8</v>
@@ -1177,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G34">
         <v>514.9</v>
@@ -1220,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G36">
         <v>612.9</v>
@@ -1286,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G39">
         <v>623.1</v>
@@ -1352,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G42">
         <v>665.7</v>
@@ -1395,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G44">
         <v>550.29499999999996</v>
@@ -1415,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G45">
         <v>598.6</v>
@@ -1435,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G46">
         <v>550.29499999999996</v>
@@ -1501,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G49">
         <v>620.79999999999995</v>
@@ -1522,7 +1523,7 @@
         <v>14</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G50">
         <v>654.9</v>
@@ -1565,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G52">
         <v>637.6</v>
@@ -1608,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G54">
         <v>617.20000000000005</v>
@@ -1628,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G55">
         <v>675.8</v>
@@ -1648,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G56">
         <v>587.70000000000005</v>
@@ -1668,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G57">
         <v>604</v>
@@ -1688,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G58">
         <v>574.70000000000005</v>
@@ -1731,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G60">
         <v>641.1</v>
@@ -1751,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G61">
         <v>617.9</v>
@@ -1771,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G62">
         <v>515.5</v>
@@ -1837,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G65">
         <v>587</v>
@@ -1903,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G68">
         <v>619.79999999999995</v>
@@ -1923,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G69">
         <v>641.79999999999995</v>
@@ -1943,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G70">
         <v>589.1</v>
@@ -1963,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G71">
         <v>637.6</v>
@@ -1983,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G72">
         <v>584.79999999999995</v>
@@ -2003,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G73">
         <v>541.6</v>
@@ -2023,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G74">
         <v>485.1</v>
@@ -2043,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G75">
         <v>554.4</v>
@@ -2063,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G76">
         <v>585.79999999999995</v>
@@ -2083,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G77">
         <v>648.1</v>
@@ -2149,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G80">
         <v>562.4</v>
@@ -2169,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G81">
         <v>510.4</v>
@@ -2189,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G82">
         <v>637.20000000000005</v>
@@ -2209,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G83">
         <v>649.5</v>
@@ -2229,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G84">
         <v>644.6</v>
@@ -2272,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G86">
         <v>570.79999999999995</v>
@@ -2292,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G87">
         <v>574.4</v>
@@ -2312,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G88">
         <v>532.79999999999995</v>
@@ -2332,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G89">
         <v>655.1</v>
@@ -2444,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G94">
         <v>614</v>
@@ -2763,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G108">
         <v>659.3</v>
@@ -2852,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G112">
         <v>539.5</v>
@@ -2895,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G114">
         <v>534.5</v>
@@ -2961,7 +2962,7 @@
         <v>10</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G117">
         <v>653.79999999999995</v>
@@ -3027,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G120">
         <v>670.1</v>
@@ -3093,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G123">
         <v>603.70000000000005</v>
@@ -3159,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G126">
         <v>612.20000000000005</v>
@@ -3800,7 +3801,7 @@
         <v>15</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G154">
         <v>550.29499999999996</v>

--- a/data/costos_y_madera_nodos.xlsx
+++ b/data/costos_y_madera_nodos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/tgoas_uc_cl/Documents/Documentos/PUC/9no sem/Capstone/capstone_industrial/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/mswahl_uc_cl/Documents/Documentos/Universidad/2025/2025-1/Capston/capstone_industrial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C957D3C8-60A5-4C70-81DA-78B61417F173}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{A6325F13-CECA-4D4F-89BA-8CC1BAF2FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ECD4B1F-B307-44BE-8074-178C301CD2C2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB2FC1B4-D5CD-4D1E-8ADB-DFA80849F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}">
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J142" sqref="J142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>550.29499999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>550.29499999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>550.29499999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>550.29499999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -5048,7 +5048,7 @@
         <v>431.9</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>589.4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>631.1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5116,6 +5116,9 @@
       <c r="G211">
         <v>605.5</v>
       </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I216" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G211" xr:uid="{602BFF83-F3F6-4A8A-B350-5D6608CEEF1F}"/>
